--- a/data/trans_camb/P38C-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P38C-Estudios-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.134982524456027</v>
+        <v>-5.705014056714981</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.716218380420118</v>
+        <v>-1.525907579013223</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.235154683480315</v>
+        <v>-2.213194197695976</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.962944090334899</v>
+        <v>2.272365013444677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.19808997618123</v>
+        <v>2.938805588816805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.953338773808379</v>
+        <v>2.080655901721195</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.05696748758056915</v>
+        <v>-0.06343964526451497</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01842269703955199</v>
+        <v>-0.01613178480523804</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.0243128347589484</v>
+        <v>-0.02425194163576589</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.0235901198959695</v>
+        <v>0.02627843475290307</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.03461492152842435</v>
+        <v>0.03211093454249169</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0216770656502047</v>
+        <v>0.02305965916184731</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-2.976562453065112</v>
+        <v>-2.976562453065124</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.805402939008816</v>
+        <v>-2.805402939008828</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-2.885733751405917</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.166759392135224</v>
+        <v>-5.950693554205863</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.242143018688616</v>
+        <v>-5.304015432683657</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.815596989358649</v>
+        <v>-4.719844134572529</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.12484407786965</v>
+        <v>-0.03555476946612051</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.3944673724048756</v>
+        <v>-0.7333201289943535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.077805796817911</v>
+        <v>-0.8752649451310845</v>
       </c>
     </row>
     <row r="13">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.03758702396679434</v>
+        <v>-0.03758702396679447</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.0327027698233196</v>
+        <v>-0.03270276982331973</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.03500782783069705</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07738176182776278</v>
+        <v>-0.07449679430793876</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.06034691154531012</v>
+        <v>-0.06075161879433507</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05781507532361763</v>
+        <v>-0.05665697969211438</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.001110825169391791</v>
+        <v>-0.001209667470863583</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.004674909115372454</v>
+        <v>-0.008601327176246294</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.01319532296305924</v>
+        <v>-0.010764432234324</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>2.895105365168649</v>
+        <v>2.895105365168626</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>5.560960079355704</v>
+        <v>5.560960079355737</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>4.271355986699243</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.981197517026261</v>
+        <v>-1.723234344187171</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.733453967591487</v>
+        <v>1.770959356120053</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.372531103386806</v>
+        <v>1.049393622235836</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.537286114842249</v>
+        <v>7.768971565419283</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.579125651696046</v>
+        <v>9.805084413780042</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.500040921179113</v>
+        <v>7.037966327441099</v>
       </c>
     </row>
     <row r="19">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.03597265950584081</v>
+        <v>0.03597265950584053</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.06654513261537223</v>
+        <v>0.06654513261537262</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.05207274321251996</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.02340759014959764</v>
+        <v>-0.02059515729486493</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.01997379889147022</v>
+        <v>0.02047671684550681</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01637978698284651</v>
+        <v>0.01174564461024867</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.09793311486138244</v>
+        <v>0.10046702862582</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1181978593483164</v>
+        <v>0.121851052273068</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.09382552862999269</v>
+        <v>0.08663534463888695</v>
       </c>
     </row>
     <row r="22">
@@ -882,10 +882,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-2.0622631874748</v>
+        <v>-2.062263187474789</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-0.8857475593157416</v>
+        <v>-0.8857475593157305</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>-1.45189577915561</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.434368855548262</v>
+        <v>-4.550292743724364</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.525339239247678</v>
+        <v>-2.328584854508826</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.775088445063953</v>
+        <v>-2.83940267080365</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03142211869996332</v>
+        <v>-0.04548365573491628</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7403926711882971</v>
+        <v>0.804272136405486</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.1486884747310308</v>
+        <v>-0.1923533875312744</v>
       </c>
     </row>
     <row r="25">
@@ -933,10 +933,10 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.02531281254256554</v>
+        <v>-0.0253128125425654</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.01013155922463835</v>
+        <v>-0.01013155922463823</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.01717743815870357</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.05376854976489853</v>
+        <v>-0.05522975803710201</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.02869240327705536</v>
+        <v>-0.02677570854755948</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.03281759966225815</v>
+        <v>-0.03344487025356236</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0002952087302095918</v>
+        <v>-0.0006429100207554586</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.008536884317909667</v>
+        <v>0.009187526786935251</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.001826978006623058</v>
+        <v>-0.002319263989252596</v>
       </c>
     </row>
     <row r="28">
